--- a/results/efficient_tl/classification_report.xlsx
+++ b/results/efficient_tl/classification_report.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.2222222222222222</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.358974358974359</v>
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.2697368421052632</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4087591240875912</v>
+        <v>0.3942307692307692</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
